--- a/data/trans_orig/P42-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42-Provincia-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>205897</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>189980</v>
+        <v>189789</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217288</v>
+        <v>217375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.789368911293939</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7283434486359166</v>
+        <v>0.7276114573802572</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8330369402806966</v>
+        <v>0.8333734361042405</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>54941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43550</v>
+        <v>43463</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>70858</v>
+        <v>71049</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.210631088706061</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1669630597193033</v>
+        <v>0.1666265638957594</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2716565513640832</v>
+        <v>0.2723885426197427</v>
       </c>
     </row>
     <row r="6">
@@ -715,19 +715,19 @@
         <v>409655</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>391426</v>
+        <v>390489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>425115</v>
+        <v>425767</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8162592735098565</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7799364153901118</v>
+        <v>0.7780691971268938</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8470634642174755</v>
+        <v>0.8483628906786649</v>
       </c>
     </row>
     <row r="8">
@@ -744,19 +744,19 @@
         <v>92214</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76754</v>
+        <v>76102</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>110443</v>
+        <v>111380</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1837407264901435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1529365357825246</v>
+        <v>0.1516371093213351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2200635846098883</v>
+        <v>0.2219308028731062</v>
       </c>
     </row>
     <row r="9">
@@ -806,19 +806,19 @@
         <v>253495</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>236482</v>
+        <v>237979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>268801</v>
+        <v>267321</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7600353984677637</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7090283650771677</v>
+        <v>0.7135150591631901</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8059272290691015</v>
+        <v>0.8014912303584537</v>
       </c>
     </row>
     <row r="11">
@@ -835,19 +835,19 @@
         <v>80035</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>64729</v>
+        <v>66209</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>97048</v>
+        <v>95551</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2399646015322364</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1940727709308984</v>
+        <v>0.1985087696415463</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2909716349228323</v>
+        <v>0.2864849408368099</v>
       </c>
     </row>
     <row r="12">
@@ -897,19 +897,19 @@
         <v>283040</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>265633</v>
+        <v>266069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>298304</v>
+        <v>297551</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7642705935788677</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7172692498475356</v>
+        <v>0.7184450312481142</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8054871521911219</v>
+        <v>0.8034524188959811</v>
       </c>
     </row>
     <row r="14">
@@ -926,19 +926,19 @@
         <v>87300</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72036</v>
+        <v>72789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>104707</v>
+        <v>104271</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2357294064211323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1945128478088781</v>
+        <v>0.1965475811040189</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2827307501524642</v>
+        <v>0.2815549687518857</v>
       </c>
     </row>
     <row r="15">
@@ -988,19 +988,19 @@
         <v>149214</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>136051</v>
+        <v>136167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>161306</v>
+        <v>161640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7337237376473665</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.66899481351604</v>
+        <v>0.6695638896582365</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7931824096975068</v>
+        <v>0.7948233043394574</v>
       </c>
     </row>
     <row r="17">
@@ -1017,19 +1017,19 @@
         <v>54152</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42060</v>
+        <v>41726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67315</v>
+        <v>67199</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2662762623526335</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2068175903024932</v>
+        <v>0.2051766956605427</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.33100518648396</v>
+        <v>0.3304361103417635</v>
       </c>
     </row>
     <row r="18">
@@ -1079,19 +1079,19 @@
         <v>204025</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>187642</v>
+        <v>188667</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>216836</v>
+        <v>218020</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7366257326918524</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6774731808329911</v>
+        <v>0.681176337123487</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.782878946911323</v>
+        <v>0.7871539582158992</v>
       </c>
     </row>
     <row r="20">
@@ -1108,19 +1108,19 @@
         <v>72948</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>60137</v>
+        <v>58953</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>89331</v>
+        <v>88306</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2633742673081476</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2171210530886771</v>
+        <v>0.2128460417841012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3225268191670089</v>
+        <v>0.3188236628765131</v>
       </c>
     </row>
     <row r="21">
@@ -1170,19 +1170,19 @@
         <v>534297</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>513984</v>
+        <v>513280</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>552378</v>
+        <v>551891</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8371690939613728</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8053417178218357</v>
+        <v>0.8042375828172101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8654999123076482</v>
+        <v>0.8647359609877605</v>
       </c>
     </row>
     <row r="23">
@@ -1199,19 +1199,19 @@
         <v>103922</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>85841</v>
+        <v>86328</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>124235</v>
+        <v>124939</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1628309060386271</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1345000876923521</v>
+        <v>0.1352640390122391</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1946582821781649</v>
+        <v>0.1957624171827898</v>
       </c>
     </row>
     <row r="24">
@@ -1261,19 +1261,19 @@
         <v>621731</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>600033</v>
+        <v>594499</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>646402</v>
+        <v>643268</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.798152203556482</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7702973566738792</v>
+        <v>0.7631925919313465</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8298241158449787</v>
+        <v>0.825800222723057</v>
       </c>
     </row>
     <row r="26">
@@ -1290,19 +1290,19 @@
         <v>157232</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>132561</v>
+        <v>135695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>178930</v>
+        <v>184464</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.201847796443518</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1701758841550212</v>
+        <v>0.1741997772769431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2297026433261209</v>
+        <v>0.2368074080686536</v>
       </c>
     </row>
     <row r="27">
@@ -1352,19 +1352,19 @@
         <v>2661356</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2612741</v>
+        <v>2611541</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2705696</v>
+        <v>2706598</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7911051909492635</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7766540691656978</v>
+        <v>0.776297344558097</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8042855927408341</v>
+        <v>0.8045536655509333</v>
       </c>
     </row>
     <row r="29">
@@ -1381,19 +1381,19 @@
         <v>702743</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>658403</v>
+        <v>657501</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>751358</v>
+        <v>752558</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2088948090507366</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1957144072591661</v>
+        <v>0.1954463344490666</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2233459308343023</v>
+        <v>0.223702655441903</v>
       </c>
     </row>
     <row r="30">
@@ -1565,19 +1565,19 @@
         <v>250891</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>238393</v>
+        <v>239299</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>260922</v>
+        <v>260940</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8830441162316633</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8390530347991721</v>
+        <v>0.8422443123496004</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9183464095254131</v>
+        <v>0.9184108330300691</v>
       </c>
     </row>
     <row r="5">
@@ -1594,19 +1594,19 @@
         <v>33230</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23199</v>
+        <v>23181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>45728</v>
+        <v>44822</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1169558837683366</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08165359047458687</v>
+        <v>0.08158916696993089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1609469652008279</v>
+        <v>0.1577556876503995</v>
       </c>
     </row>
     <row r="6">
@@ -1656,19 +1656,19 @@
         <v>474163</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>461031</v>
+        <v>459010</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>487074</v>
+        <v>487121</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9070148945980301</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8818947673607731</v>
+        <v>0.8780301538886837</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9317127297856452</v>
+        <v>0.9318021877086278</v>
       </c>
     </row>
     <row r="8">
@@ -1685,19 +1685,19 @@
         <v>48610</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>35699</v>
+        <v>35652</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61742</v>
+        <v>63763</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09298510540196991</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06828727021435495</v>
+        <v>0.06819781229137226</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.118105232639227</v>
+        <v>0.1219698461113164</v>
       </c>
     </row>
     <row r="9">
@@ -1747,19 +1747,19 @@
         <v>290219</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>275790</v>
+        <v>277587</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302127</v>
+        <v>302050</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.853639111922364</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8112001936469122</v>
+        <v>0.8164855229883693</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8886653107721855</v>
+        <v>0.8884412553477185</v>
       </c>
     </row>
     <row r="11">
@@ -1776,19 +1776,19 @@
         <v>49759</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37851</v>
+        <v>37928</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64188</v>
+        <v>62391</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1463608880776361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1113346892278144</v>
+        <v>0.1115587446522814</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1887998063530876</v>
+        <v>0.1835144770116308</v>
       </c>
     </row>
     <row r="12">
@@ -1838,19 +1838,19 @@
         <v>327986</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311839</v>
+        <v>311717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>341105</v>
+        <v>341626</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8453811189767141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8037613626941937</v>
+        <v>0.8034494259561757</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8791968008176765</v>
+        <v>0.8805392556598147</v>
       </c>
     </row>
     <row r="14">
@@ -1867,19 +1867,19 @@
         <v>59988</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46869</v>
+        <v>46348</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>76135</v>
+        <v>76257</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1546188810232859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1208031991823225</v>
+        <v>0.1194607443401852</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1962386373058058</v>
+        <v>0.196550574043824</v>
       </c>
     </row>
     <row r="15">
@@ -1929,19 +1929,19 @@
         <v>188207</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>177343</v>
+        <v>176348</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>198229</v>
+        <v>197855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8570775566963453</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8076038401015573</v>
+        <v>0.8030750894398987</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.902718512515354</v>
+        <v>0.9010161935059768</v>
       </c>
     </row>
     <row r="17">
@@ -1958,19 +1958,19 @@
         <v>31384</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>21362</v>
+        <v>21736</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>42248</v>
+        <v>43243</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1429224433036546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09728148748464613</v>
+        <v>0.09898380649402316</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1923961598984431</v>
+        <v>0.1969249105601013</v>
       </c>
     </row>
     <row r="18">
@@ -2020,19 +2020,19 @@
         <v>241176</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>228261</v>
+        <v>228057</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>251567</v>
+        <v>251097</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8612489195867382</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8151262222941713</v>
+        <v>0.8143997036765779</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8983554931453062</v>
+        <v>0.8966773456114584</v>
       </c>
     </row>
     <row r="20">
@@ -2049,19 +2049,19 @@
         <v>38855</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28464</v>
+        <v>28934</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>51770</v>
+        <v>51974</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1387510804132618</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1016445068546938</v>
+        <v>0.1033226543885416</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1848737777058286</v>
+        <v>0.1856002963234221</v>
       </c>
     </row>
     <row r="21">
@@ -2111,19 +2111,19 @@
         <v>619193</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>602176</v>
+        <v>602668</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>634498</v>
+        <v>633343</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8964531791576086</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8718169885869775</v>
+        <v>0.8725286306870366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9186110877217865</v>
+        <v>0.9169390233899303</v>
       </c>
     </row>
     <row r="23">
@@ -2140,19 +2140,19 @@
         <v>71521</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>56216</v>
+        <v>57371</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>88538</v>
+        <v>88046</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1035468208423914</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08138891227821354</v>
+        <v>0.08306097661006971</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1281830114130225</v>
+        <v>0.1274713693129635</v>
       </c>
     </row>
     <row r="24">
@@ -2202,19 +2202,19 @@
         <v>691366</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>668514</v>
+        <v>669591</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>710974</v>
+        <v>711059</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8514238754233835</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8232809728693342</v>
+        <v>0.8246070539215719</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8755707005152779</v>
+        <v>0.8756755760414739</v>
       </c>
     </row>
     <row r="26">
@@ -2231,19 +2231,19 @@
         <v>120646</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101038</v>
+        <v>100953</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>143498</v>
+        <v>142421</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1485761245766165</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1244292994847222</v>
+        <v>0.1243244239585258</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1767190271306657</v>
+        <v>0.1753929460784281</v>
       </c>
     </row>
     <row r="27">
@@ -2293,19 +2293,19 @@
         <v>3083200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3040766</v>
+        <v>3043862</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3119794</v>
+        <v>3127305</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8716515876878613</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.859655061657092</v>
+        <v>0.8605303238458164</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.88199700183296</v>
+        <v>0.8841206173831254</v>
       </c>
     </row>
     <row r="29">
@@ -2322,19 +2322,19 @@
         <v>453993</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>417399</v>
+        <v>409888</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>496427</v>
+        <v>493331</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1283484123121387</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.11800299816704</v>
+        <v>0.1158793826168747</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.140344938342908</v>
+        <v>0.1394696761541836</v>
       </c>
     </row>
     <row r="30">
@@ -2506,19 +2506,19 @@
         <v>239486</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226507</v>
+        <v>226584</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>249283</v>
+        <v>250860</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8502842638322096</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8042021742294442</v>
+        <v>0.8044764884839986</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.885068921560562</v>
+        <v>0.89066552525023</v>
       </c>
     </row>
     <row r="5">
@@ -2535,19 +2535,19 @@
         <v>42168</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>32371</v>
+        <v>30794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>55147</v>
+        <v>55070</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1497157361677904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.114931078439438</v>
+        <v>0.10933447474977</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1957978257705559</v>
+        <v>0.1955235115160016</v>
       </c>
     </row>
     <row r="6">
@@ -2597,19 +2597,19 @@
         <v>437523</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>419407</v>
+        <v>420044</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>454016</v>
+        <v>454268</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8426565143304811</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8077645305893391</v>
+        <v>0.8089911891024157</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8744200873309773</v>
+        <v>0.8749054060406614</v>
       </c>
     </row>
     <row r="8">
@@ -2626,19 +2626,19 @@
         <v>81696</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>65203</v>
+        <v>64951</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>99812</v>
+        <v>99175</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.157343485669519</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1255799126690225</v>
+        <v>0.1250945939593384</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1922354694106609</v>
+        <v>0.1910088108975843</v>
       </c>
     </row>
     <row r="9">
@@ -2688,19 +2688,19 @@
         <v>289659</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>276481</v>
+        <v>276606</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>300184</v>
+        <v>300374</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.866424688728193</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8270065974904478</v>
+        <v>0.8273824669534002</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8979087517787943</v>
+        <v>0.8984760231498783</v>
       </c>
     </row>
     <row r="11">
@@ -2717,19 +2717,19 @@
         <v>44656</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>34131</v>
+        <v>33941</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>57834</v>
+        <v>57709</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.133575311271807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1020912482212057</v>
+        <v>0.1015239768501221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1729934025095522</v>
+        <v>0.1726175330465998</v>
       </c>
     </row>
     <row r="12">
@@ -2779,19 +2779,19 @@
         <v>327054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>311953</v>
+        <v>312031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>340716</v>
+        <v>340817</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8465031222270116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.807416563286827</v>
+        <v>0.8076195587320706</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8818642724043645</v>
+        <v>0.8821263673462377</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>59305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45643</v>
+        <v>45542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74406</v>
+        <v>74328</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1534968777729884</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1181357275956356</v>
+        <v>0.1178736326537624</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1925834367131733</v>
+        <v>0.1923804412679294</v>
       </c>
     </row>
     <row r="15">
@@ -2870,19 +2870,19 @@
         <v>195122</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>185124</v>
+        <v>185589</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203056</v>
+        <v>202929</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8962084447587532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8502878010743427</v>
+        <v>0.8524232555558391</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9326538359369899</v>
+        <v>0.9320669862261168</v>
       </c>
     </row>
     <row r="17">
@@ -2899,19 +2899,19 @@
         <v>22597</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14663</v>
+        <v>14790</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32595</v>
+        <v>32130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1037915552412468</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06734616406300997</v>
+        <v>0.06793301377388314</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1497121989256573</v>
+        <v>0.1475767444441609</v>
       </c>
     </row>
     <row r="18">
@@ -2961,19 +2961,19 @@
         <v>214730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>200408</v>
+        <v>201306</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>227357</v>
+        <v>226974</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7862265899095179</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7337856842805131</v>
+        <v>0.7370753244654547</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.832458707196931</v>
+        <v>0.8310556725751028</v>
       </c>
     </row>
     <row r="20">
@@ -2990,19 +2990,19 @@
         <v>58385</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45758</v>
+        <v>46141</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>72707</v>
+        <v>71809</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2137734100904821</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.167541292803069</v>
+        <v>0.1689443274248971</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2662143157194871</v>
+        <v>0.2629246755345453</v>
       </c>
     </row>
     <row r="21">
@@ -3052,19 +3052,19 @@
         <v>628556</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>610058</v>
+        <v>613737</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>640939</v>
+        <v>641857</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9178006432341689</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8907912703670672</v>
+        <v>0.8961625977993124</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9358820743715802</v>
+        <v>0.937222354893377</v>
       </c>
     </row>
     <row r="23">
@@ -3081,19 +3081,19 @@
         <v>56294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43911</v>
+        <v>42993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>74792</v>
+        <v>71113</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08219935676583115</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06411792562841982</v>
+        <v>0.06277764510662304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1092087296329334</v>
+        <v>0.1038374022006877</v>
       </c>
     </row>
     <row r="24">
@@ -3143,19 +3143,19 @@
         <v>734423</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>714350</v>
+        <v>715699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>750577</v>
+        <v>750374</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8957879291955378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8713042818658575</v>
+        <v>0.8729496030686905</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9154904391890821</v>
+        <v>0.9152432039804385</v>
       </c>
     </row>
     <row r="26">
@@ -3172,19 +3172,19 @@
         <v>85440</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>69286</v>
+        <v>69489</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>105513</v>
+        <v>104164</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1042120708044621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08450956081091782</v>
+        <v>0.08475679601956149</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1286957181341424</v>
+        <v>0.1270503969313094</v>
       </c>
     </row>
     <row r="27">
@@ -3234,19 +3234,19 @@
         <v>3066554</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3025581</v>
+        <v>3026751</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3108029</v>
+        <v>3104433</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8718996815257611</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.860250027344613</v>
+        <v>0.8605827847695359</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8836921828125953</v>
+        <v>0.882669712676635</v>
       </c>
     </row>
     <row r="29">
@@ -3263,19 +3263,19 @@
         <v>450541</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>409066</v>
+        <v>412662</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>491514</v>
+        <v>490344</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1281003184742389</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1163078171874047</v>
+        <v>0.1173302873233651</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1397499726553872</v>
+        <v>0.1394172152304642</v>
       </c>
     </row>
     <row r="30">
@@ -3447,19 +3447,19 @@
         <v>192811</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>182212</v>
+        <v>182380</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>198014</v>
+        <v>198258</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9462951844411216</v>
+        <v>0.9462951844411215</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8942723538159527</v>
+        <v>0.8950994970272828</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.971828216626227</v>
+        <v>0.9730272787887116</v>
       </c>
     </row>
     <row r="5">
@@ -3476,19 +3476,19 @@
         <v>10943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5740</v>
+        <v>5496</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21542</v>
+        <v>21374</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05370481555887848</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02817178337377322</v>
+        <v>0.02697272121128858</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1057276461840473</v>
+        <v>0.1049005029727175</v>
       </c>
     </row>
     <row r="6">
@@ -3538,19 +3538,19 @@
         <v>387540</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>370234</v>
+        <v>370377</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>399769</v>
+        <v>399797</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8977943213767373</v>
+        <v>0.8977943213767374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8577025997467567</v>
+        <v>0.8580333633222111</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.926124123410487</v>
+        <v>0.9261897858597606</v>
       </c>
     </row>
     <row r="8">
@@ -3567,19 +3567,19 @@
         <v>44118</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>31889</v>
+        <v>31861</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>61424</v>
+        <v>61281</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1022056786232625</v>
+        <v>0.1022056786232626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07387587658951278</v>
+        <v>0.07381021414023932</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.142297400253243</v>
+        <v>0.1419666366777887</v>
       </c>
     </row>
     <row r="9">
@@ -3629,19 +3629,19 @@
         <v>205331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>191177</v>
+        <v>190639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216291</v>
+        <v>216041</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8039069332948386</v>
+        <v>0.8039069332948389</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.748494398311692</v>
+        <v>0.7463866247056912</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8468190213038579</v>
+        <v>0.845839739709385</v>
       </c>
     </row>
     <row r="11">
@@ -3658,19 +3658,19 @@
         <v>50085</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>39125</v>
+        <v>39375</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>64239</v>
+        <v>64777</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1960930667051611</v>
+        <v>0.1960930667051612</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.153180978696142</v>
+        <v>0.154160260290615</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2515056016883079</v>
+        <v>0.2536133752943087</v>
       </c>
     </row>
     <row r="12">
@@ -3720,19 +3720,19 @@
         <v>282580</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>264574</v>
+        <v>265274</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>294989</v>
+        <v>296462</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8815185625892783</v>
+        <v>0.8815185625892785</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8253479945514254</v>
+        <v>0.8275337247944015</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9202303692150537</v>
+        <v>0.9248266014481974</v>
       </c>
     </row>
     <row r="14">
@@ -3749,19 +3749,19 @@
         <v>37980</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25571</v>
+        <v>24098</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>55986</v>
+        <v>55286</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1184814374107215</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0797696307849463</v>
+        <v>0.07517339855180269</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.174652005448575</v>
+        <v>0.1724662752055985</v>
       </c>
     </row>
     <row r="15">
@@ -3811,19 +3811,19 @@
         <v>142451</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>133650</v>
+        <v>133834</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>149708</v>
+        <v>149088</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8554943882391923</v>
+        <v>0.8554943882391921</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8026405131286252</v>
+        <v>0.803745472719785</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8990777631390875</v>
+        <v>0.8953554429435754</v>
       </c>
     </row>
     <row r="17">
@@ -3840,19 +3840,19 @@
         <v>24062</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16805</v>
+        <v>17425</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>32863</v>
+        <v>32679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1445056117608079</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1009222368609127</v>
+        <v>0.1046445570564246</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.197359486871375</v>
+        <v>0.1962545272802149</v>
       </c>
     </row>
     <row r="18">
@@ -3902,19 +3902,19 @@
         <v>153419</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>141410</v>
+        <v>141200</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>164665</v>
+        <v>164705</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.7121477808323466</v>
+        <v>0.7121477808323464</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6564030023991276</v>
+        <v>0.6554271600947807</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7643483646293828</v>
+        <v>0.7645321807257359</v>
       </c>
     </row>
     <row r="20">
@@ -3931,19 +3931,19 @@
         <v>62013</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50767</v>
+        <v>50727</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>74022</v>
+        <v>74232</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2878522191676535</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.235651635370617</v>
+        <v>0.2354678192742641</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3435969976008726</v>
+        <v>0.3445728399052193</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>468244</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>450579</v>
+        <v>448879</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>483152</v>
+        <v>483041</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8739124190675351</v>
+        <v>0.873912419067535</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8409432426592365</v>
+        <v>0.8377695265935785</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9017365631090292</v>
+        <v>0.9015288121252051</v>
       </c>
     </row>
     <row r="23">
@@ -4022,19 +4022,19 @@
         <v>67558</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>52650</v>
+        <v>52761</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>85223</v>
+        <v>86923</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.126087580932465</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09826343689097079</v>
+        <v>0.09847118787479485</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1590567573407635</v>
+        <v>0.1622304734064214</v>
       </c>
     </row>
     <row r="24">
@@ -4084,19 +4084,19 @@
         <v>511400</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>486212</v>
+        <v>487007</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>532568</v>
+        <v>533508</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.7625534142751611</v>
+        <v>0.7625534142751612</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7249958418386818</v>
+        <v>0.7261806257222345</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7941185633561526</v>
+        <v>0.7955195823526964</v>
       </c>
     </row>
     <row r="26">
@@ -4113,19 +4113,19 @@
         <v>159241</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>138073</v>
+        <v>137133</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>184429</v>
+        <v>183634</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2374465857248387</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2058814366438471</v>
+        <v>0.2044804176473035</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2750041581613172</v>
+        <v>0.2738193742777654</v>
       </c>
     </row>
     <row r="27">
@@ -4175,19 +4175,19 @@
         <v>2343774</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2301244</v>
+        <v>2304758</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2385982</v>
+        <v>2384225</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.8371297599678441</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.8219393620610372</v>
+        <v>0.8231943605109457</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8522053137540831</v>
+        <v>0.8515774909226135</v>
       </c>
     </row>
     <row r="29">
@@ -4204,19 +4204,19 @@
         <v>456000</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>413792</v>
+        <v>415549</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>498530</v>
+        <v>495016</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1628702400321558</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1477946862459167</v>
+        <v>0.1484225090773863</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1780606379389628</v>
+        <v>0.1768056394890542</v>
       </c>
     </row>
     <row r="30">
